--- a/evaluation/OLS_Regression_Feature_Analysis_fairness_measure_based_PFCN_MLP.xlsx
+++ b/evaluation/OLS_Regression_Feature_Analysis_fairness_measure_based_PFCN_MLP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1970613237564935</v>
+        <v>0.1972977849729641</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003463558704478542</v>
+        <v>0.003351845883775925</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1466096369447422</v>
+        <v>0.1460390830863476</v>
       </c>
       <c r="C3" t="n">
-        <v>2.026943743633361e-06</v>
+        <v>1.478708668977049e-06</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1454965715362725</v>
+        <v>0.1451678847277161</v>
       </c>
       <c r="C4" t="n">
-        <v>2.368792751434629e-10</v>
+        <v>1.649015113680851e-10</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.122549051050862</v>
+        <v>0.1244326678069552</v>
       </c>
       <c r="C5" t="n">
-        <v>1.276386022519938e-06</v>
+        <v>6.468247690994944e-12</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1003748621921656</v>
+        <v>0.1006134438851904</v>
       </c>
       <c r="C6" t="n">
-        <v>2.258637188388652e-15</v>
+        <v>6.241595101536207e-16</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08234419647349205</v>
+        <v>0.08217706740709826</v>
       </c>
       <c r="C7" t="n">
-        <v>3.15846122815095e-11</v>
+        <v>2.203835222151106e-11</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -605,10 +605,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06315237506277985</v>
+        <v>0.06299081732061726</v>
       </c>
       <c r="C8" t="n">
-        <v>2.233669173114655e-08</v>
+        <v>1.699586669695278e-08</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05435780710947312</v>
+        <v>0.054842336682171</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009008140083283572</v>
+        <v>0.006841588688853884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -651,14 +651,14 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05262211675574793</v>
+        <v>0.05133326963511071</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0227785912082432</v>
+        <v>0.009039830297685033</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04852227869421577</v>
+        <v>0.04822435152971216</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007902400272150971</v>
+        <v>0.007446815965035031</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02821404149654455</v>
+        <v>0.02839691672963432</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004057775852640857</v>
+        <v>0.003258868202173029</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01145297993449207</v>
+        <v>0.01147726055632439</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6599754622758367</v>
+        <v>0.6587262209040794</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00534033337407111</v>
+        <v>0.005892109541919661</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6787718347254887</v>
+        <v>0.6173535603914692</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003318792253418107</v>
+        <v>0.002946287523867885</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7924883408307196</v>
+        <v>0.8076448471429276</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -773,20 +773,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.236916165877726e-17</v>
+        <v>-0.0008711983586323635</v>
       </c>
       <c r="C16" t="n">
-        <v>6.187284224782881e-05</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.9837069557786857</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -796,14 +792,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.001113065408471392</v>
+        <v>-0.02167283170477735</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9792502148683857</v>
+        <v>0.3187704486672111</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -815,14 +811,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.002348476253640597</v>
+        <v>-0.02481119179415789</v>
       </c>
       <c r="C18" t="n">
-        <v>0.914983646094204</v>
+        <v>0.3453311857143799</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -834,16 +830,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0228727539867814</v>
+        <v>-0.08886290329823052</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3506801384543571</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>0.000402929621152921</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -853,16 +853,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02355727001826782</v>
+        <v>-0.09581835718835414</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4139731452744407</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0.007525389323226963</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -872,14 +876,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.08873170415538026</v>
+        <v>-0.2167418492433769</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004272775507398262</v>
+        <v>3.394554823504356e-12</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -895,37 +899,37 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.09527710955884168</v>
+        <v>0.4931802632388101</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00861358887032051</v>
+        <v>7.00449460354534e-08</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Value Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.2156807168903191</v>
+        <v>0.2418534634528277</v>
       </c>
       <c r="C23" t="n">
-        <v>4.414997249755607e-11</v>
+        <v>3.496411905934704e-17</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -934,21 +938,21 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Value Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5010559538251271</v>
+        <v>0.2259503598083283</v>
       </c>
       <c r="C24" t="n">
-        <v>3.260370142731156e-08</v>
+        <v>9.452717972713142e-36</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -964,14 +968,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2579914375842643</v>
+        <v>0.163974722455523</v>
       </c>
       <c r="C25" t="n">
-        <v>1.221942548482647e-18</v>
+        <v>4.262879395231891e-11</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -987,14 +991,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2338966760028953</v>
+        <v>0.1251886772269248</v>
       </c>
       <c r="C26" t="n">
-        <v>3.373313084285763e-37</v>
+        <v>1.3865297634642e-07</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1010,18 +1014,18 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1879253195212876</v>
+        <v>0.09364980429878514</v>
       </c>
       <c r="C27" t="n">
-        <v>2.225997551022298e-08</v>
+        <v>0.01884596002125015</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1033,20 +1037,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1540518175499727</v>
+        <v>0.05568861823576339</v>
       </c>
       <c r="C28" t="n">
-        <v>5.089782403166187e-10</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1132360728222835</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1056,20 +1056,16 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.07821947547706018</v>
+        <v>0.01910274932665966</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00737123253374775</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1360589679915026</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1079,14 +1075,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.07464666408567547</v>
+        <v>0.01710980337939894</v>
       </c>
       <c r="C30" t="n">
-        <v>0.061998619105405</v>
+        <v>0.2901708160492313</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1102,10 +1098,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04780760149478715</v>
+        <v>0.007842414976045764</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1394659060494097</v>
+        <v>0.7868737396439834</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
@@ -1117,14 +1113,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02519367947247851</v>
+        <v>-0.003407431242277902</v>
       </c>
       <c r="C32" t="n">
-        <v>0.05070631362014957</v>
+        <v>0.9181753022330503</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1136,14 +1132,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01392489869748153</v>
+        <v>-0.006429524882739682</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7140469089243345</v>
+        <v>0.8529901254892098</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -1155,14 +1151,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.00470298235535653</v>
+        <v>-0.02509276110293222</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7773642505572148</v>
+        <v>0.1118258760136743</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
@@ -1174,14 +1170,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-7.197417840423054e-17</v>
+        <v>-0.04839572472333606</v>
       </c>
       <c r="C35" t="n">
-        <v>4.409962194505383e-11</v>
+        <v>0.0009451349462119277</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1197,16 +1193,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.005620822856869704</v>
+        <v>-0.04945268768194111</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8698988867787915</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+        <v>0.001854760699904907</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1216,14 +1216,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.006715039649300425</v>
+        <v>-0.06693407080754731</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6928638072404409</v>
+        <v>0.1601683665578613</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
@@ -1235,16 +1235,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.007777212763778261</v>
+        <v>-0.0978484124052782</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8128280889812215</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>0.0009205293693029957</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1254,14 +1258,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.05377664430112949</v>
+        <v>-0.1087566093587645</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0002418628579330682</v>
+        <v>4.049402362440524e-05</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1277,14 +1281,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.05501916845433311</v>
+        <v>-0.1914982167040633</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0005328769989546569</v>
+        <v>0.0008734074902186354</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1300,16 +1304,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.08496112371809911</v>
+        <v>-0.2630164007021508</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07463849461906685</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+        <v>1.885513542060455e-10</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1319,14 +1327,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.1087958127554619</v>
+        <v>1.764900391039137</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0002327342343902301</v>
+        <v>4.785805577113096e-32</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1335,21 +1343,21 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Overrestimation Unfairness</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.1516835691651754</v>
+        <v>1.332697297204694</v>
       </c>
       <c r="C43" t="n">
-        <v>9.825358589575233e-07</v>
+        <v>2.70148623390402e-14</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1358,44 +1366,44 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Overrestimation Unfairness</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.183442476841139</v>
+        <v>0.8798168920398017</v>
       </c>
       <c r="C44" t="n">
-        <v>0.001276883442369449</v>
+        <v>0.0001177586619438737</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Overrestimation Unfairness</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.2983589833402714</v>
+        <v>0.8086714926783098</v>
       </c>
       <c r="C45" t="n">
-        <v>5.648474659852204e-12</v>
+        <v>5.29241331447972e-05</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1404,21 +1412,21 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Overrestimation Unfairness</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.854719517224036</v>
+        <v>0.7183506399183006</v>
       </c>
       <c r="C46" t="n">
-        <v>5.859590214536794e-20</v>
+        <v>2.615382409914448e-14</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1434,14 +1442,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.317024065461814</v>
+        <v>0.6143466572863905</v>
       </c>
       <c r="C47" t="n">
-        <v>8.872426671854694e-14</v>
+        <v>1.040443204561465e-12</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1457,14 +1465,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.8526103762574906</v>
+        <v>0.5879485065409147</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0002391815942195753</v>
+        <v>1.906399204203001e-10</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1480,18 +1488,18 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.8098292994504207</v>
+        <v>0.5452686481044299</v>
       </c>
       <c r="C49" t="n">
-        <v>5.26024936403318e-05</v>
+        <v>0.04444994345696108</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1503,20 +1511,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.7103811914330697</v>
+        <v>0.4528804051648878</v>
       </c>
       <c r="C50" t="n">
-        <v>7.868028691417373e-14</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1625463722470147</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>Differential Fairness</t>
@@ -1526,20 +1530,16 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.6066428740287386</v>
+        <v>0.3898110934864292</v>
       </c>
       <c r="C51" t="n">
-        <v>3.076677600440908e-12</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4417464000005484</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>Differential Fairness</t>
@@ -1549,20 +1549,16 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.5993251303269965</v>
+        <v>0.1933827929377951</v>
       </c>
       <c r="C52" t="n">
-        <v>1.885010418595312e-10</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.155399738815239</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>Differential Fairness</t>
@@ -1572,14 +1568,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.5194595821280106</v>
+        <v>0.1395986449834763</v>
       </c>
       <c r="C53" t="n">
-        <v>0.05815277471466711</v>
+        <v>0.1195030452058175</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
@@ -1591,14 +1587,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.4644136892043105</v>
+        <v>0.08354697951314516</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1531204998960616</v>
+        <v>0.2508805805337428</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
@@ -1610,14 +1606,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.4010866036300387</v>
+        <v>0.02558670306606103</v>
       </c>
       <c r="C55" t="n">
-        <v>0.429371416256692</v>
+        <v>0.8920136216742016</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
@@ -1629,14 +1625,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1791763162243893</v>
+        <v>0.00940173119690102</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1936697608234016</v>
+        <v>0.9184501315132922</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
@@ -1648,14 +1644,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1659097579450166</v>
+        <v>-0.05804742619664627</v>
       </c>
       <c r="C57" t="n">
-        <v>0.09049817337634777</v>
+        <v>0.7042135595387087</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
@@ -1667,14 +1663,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1119856702726598</v>
+        <v>-0.1170281124649672</v>
       </c>
       <c r="C58" t="n">
-        <v>0.502158522027162</v>
+        <v>0.5572996582248175</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
@@ -1686,16 +1682,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.09226727443718385</v>
+        <v>-0.500860530374434</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2124592351398288</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+        <v>0.002574125548700334</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>Differential Fairness</t>
@@ -1705,16 +1705,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01933055126184868</v>
+        <v>-0.7945194139445179</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9184876364886341</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+        <v>1.717493174796905e-07</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>Differential Fairness</t>
@@ -1724,14 +1728,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-2.064203493895098e-16</v>
+        <v>-1.019343007333839</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0007176188855986484</v>
+        <v>9.512654496021173e-06</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1747,146 +1751,138 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.008360931616371747</v>
+        <v>0.2217798625904171</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9303426122798066</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>0.02953344551021057</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Differential Fairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.0349429264677783</v>
+        <v>0.1326232346543225</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8237187106653259</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>0.003573853040193909</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Differential Fairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.1768206142306643</v>
+        <v>0.07901260454956048</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4186892766003796</v>
+        <v>0.08210410047748372</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Differential Fairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.4436429618267421</v>
+        <v>0.04826127740467184</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01744557904327983</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.2275514443787787</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Differential Fairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.8559773096587127</v>
+        <v>0.01941448159078629</v>
       </c>
       <c r="C66" t="n">
-        <v>1.531594434119049e-06</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.2917963623879252</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Differential Fairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-1.069942462031764</v>
+        <v>0.01362639571448759</v>
       </c>
       <c r="C67" t="n">
-        <v>1.05257022608106e-05</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.6823597584024255</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Differential Fairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2252848766438377</v>
+        <v>0.01140981483858347</v>
       </c>
       <c r="C68" t="n">
-        <v>0.02714015589579357</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.4895229544872343</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -1896,20 +1892,16 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1241660368027715</v>
+        <v>0.00221658087590481</v>
       </c>
       <c r="C69" t="n">
-        <v>0.007184464789777766</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.9016352664007621</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -1919,14 +1911,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.06328366656334347</v>
+        <v>-0.005086124832235394</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1858586502503842</v>
+        <v>0.864105750242092</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
@@ -1938,14 +1930,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.03481096137456775</v>
+        <v>-0.00985961307367835</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2975220707185869</v>
+        <v>0.582433407390886</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
@@ -1957,14 +1949,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02967466302457662</v>
+        <v>-0.010901022136322</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4976138206951339</v>
+        <v>0.4543212289463261</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
@@ -1976,14 +1968,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01389292363076433</v>
+        <v>-0.02257430870280112</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4681904531315144</v>
+        <v>0.5501032872066902</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
@@ -1995,14 +1987,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.009015078969545912</v>
+        <v>-0.02655860314081847</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5885189783437121</v>
+        <v>0.3296876485950295</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
@@ -2014,14 +2006,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.008754341428545226</v>
+        <v>-0.03041514933020129</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7945302305417922</v>
+        <v>0.357385376167349</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
@@ -2033,14 +2025,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4.365698431963361e-19</v>
+        <v>-0.04475900174364066</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9711905171349983</v>
+        <v>0.1447211086944096</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
@@ -2052,16 +2044,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.0002607375410003526</v>
+        <v>-0.05761111971754794</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9884987927290763</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
+        <v>0.02975754250364077</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2071,16 +2067,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.001680752914196352</v>
+        <v>-0.05808498276878088</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9315427218895348</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+        <v>0.001252259751478138</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2090,14 +2090,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.008190301657206939</v>
+        <v>-0.08943120564354615</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5798331238294998</v>
+        <v>0.09952777282970188</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
@@ -2109,14 +2109,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.01262895790221993</v>
+        <v>-0.1189968389398343</v>
       </c>
       <c r="C80" t="n">
-        <v>0.734011009964219</v>
+        <v>0.06737305748775173</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
@@ -2128,16 +2128,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.02419043013004898</v>
+        <v>-0.3111847579365411</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4884888406047818</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
+        <v>6.953012267592215e-14</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2151,176 +2155,176 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.02451904554528814</v>
+        <v>0.1676469096480515</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5167515185485101</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
+        <v>9.572995686340363e-06</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.02969067128243104</v>
+        <v>0.1082167078980477</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4299525998852745</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
+        <v>0.005763384189899033</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.0309747137997541</v>
+        <v>0.06708156012302791</v>
       </c>
       <c r="C84" t="n">
-        <v>0.261367003992182</v>
+        <v>0.1339253308757883</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.03757692348593128</v>
+        <v>0.05092574364410717</v>
       </c>
       <c r="C85" t="n">
-        <v>0.231892079127421</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
+        <v>0.0004483371704344727</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.05454853734477259</v>
+        <v>0.04929089873679087</v>
       </c>
       <c r="C86" t="n">
-        <v>0.002870086379892513</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.3561587844792496</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.09745400353037945</v>
+        <v>0.02699331668291223</v>
       </c>
       <c r="C87" t="n">
-        <v>0.07562995853402847</v>
+        <v>0.1273347084148337</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.1154116953742257</v>
+        <v>0.01891736488223972</v>
       </c>
       <c r="C88" t="n">
-        <v>0.07636786748655001</v>
+        <v>0.5184672702925176</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.3108248514706086</v>
+        <v>0.01809661403580037</v>
       </c>
       <c r="C89" t="n">
-        <v>7.406691145841956e-14</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.7771129393573741</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1611893875962096</v>
+        <v>0.01195733972662499</v>
       </c>
       <c r="C90" t="n">
-        <v>1.41087878952525e-05</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.6558858987150533</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2330,20 +2334,16 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1155902155042434</v>
+        <v>0.007786403261785887</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0003911112979405149</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.667660013169067</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2353,20 +2353,16 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1094117816425192</v>
+        <v>-0.0008925243495406703</v>
       </c>
       <c r="C92" t="n">
-        <v>0.00439659102021666</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.976413713729912</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2380,16 +2376,12 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.08587474939393112</v>
+        <v>-0.006835435104106591</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01857540002503425</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7927569768725967</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2399,20 +2391,16 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.059926723564804</v>
+        <v>-0.01426705184339128</v>
       </c>
       <c r="C94" t="n">
-        <v>3.583600474949777e-05</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.419803403434642</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2422,20 +2410,16 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0541513201129559</v>
+        <v>-0.01478319550197574</v>
       </c>
       <c r="C95" t="n">
-        <v>0.004429468214753342</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.3637382913701234</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2445,14 +2429,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.03000112632154964</v>
+        <v>-0.01657222445891441</v>
       </c>
       <c r="C96" t="n">
-        <v>0.632398705976342</v>
+        <v>0.346142038658073</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
@@ -2464,14 +2448,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.02295565279915134</v>
+        <v>-0.02905024734536741</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4490671255314312</v>
+        <v>0.3762578416998302</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
@@ -2483,14 +2467,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0226511019581954</v>
+        <v>-0.03379674246136127</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6680600384266693</v>
+        <v>0.3908941160070173</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
@@ -2502,14 +2486,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01485343255376274</v>
+        <v>-0.04714686138116725</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7474056295872902</v>
+        <v>0.2901104967634121</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
@@ -2521,14 +2505,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1.066084695041412e-17</v>
+        <v>-0.06113811899242792</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3613915612188661</v>
+        <v>0.5411187428476533</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
@@ -2540,211 +2524,21 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.00270640877673922</v>
+        <v>-0.1282010154656462</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9189532381525229</v>
-      </c>
-      <c r="D101" t="inlineStr"/>
+        <v>0.0001016539433039863</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Rating per User</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>-0.004829414937464289</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.7829089189358377</v>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Skewness of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>-0.0105479962869843</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.568319115758102</v>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Age</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>-0.022493017412154</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.1984311495506279</v>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>-0.02273494472829879</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.1582886268776259</v>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Shape</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>-0.04451871040083074</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.1872190560272711</v>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>const</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>-0.04522796214045265</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.1641685948149767</v>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Mean Rating</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>-0.04949967771466614</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.613644178116544</v>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Rating per Item</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>-0.06914175312472876</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.0547828953260122</v>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Dataset_BX</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>-0.07522908846200221</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.0903778183114731</v>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Gini Item</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.09551381883199628</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.02434047072591394</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
         </is>

--- a/evaluation/OLS_Regression_Feature_Analysis_fairness_measure_based_PFCN_MLP.xlsx
+++ b/evaluation/OLS_Regression_Feature_Analysis_fairness_measure_based_PFCN_MLP.xlsx
@@ -467,14 +467,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1972977849729641</v>
+        <v>0.16634273672879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003351845883775925</v>
+        <v>0.01653890287907109</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -486,14 +486,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1460390830863476</v>
+        <v>0.151223602818587</v>
       </c>
       <c r="C3" t="n">
-        <v>1.478708668977049e-06</v>
+        <v>2.026820315819761e-15</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -509,14 +509,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1451678847277161</v>
+        <v>0.1338094798345106</v>
       </c>
       <c r="C4" t="n">
-        <v>1.649015113680851e-10</v>
+        <v>1.804832398136049e-05</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -532,14 +532,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1244326678069552</v>
+        <v>0.111131477963565</v>
       </c>
       <c r="C5" t="n">
-        <v>6.468247690994944e-12</v>
+        <v>1.542268147370768e-06</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -555,14 +555,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1006134438851904</v>
+        <v>0.07689560413496224</v>
       </c>
       <c r="C6" t="n">
-        <v>6.241595101536207e-16</v>
+        <v>1.056841044494637e-09</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -578,18 +578,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08217706740709826</v>
+        <v>0.06765208752621001</v>
       </c>
       <c r="C7" t="n">
-        <v>2.203835222151106e-11</v>
+        <v>0.001312039577008569</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -605,14 +605,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06299081732061726</v>
+        <v>0.03423587382860172</v>
       </c>
       <c r="C8" t="n">
-        <v>1.699586669695278e-08</v>
+        <v>0.002525976477343768</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -624,20 +624,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.054842336682171</v>
+        <v>0.02999334840209232</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006841588688853884</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.2644848152916993</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -647,20 +643,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05133326963511071</v>
+        <v>0.02993688330486002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009039830297685033</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.09646404153032533</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -670,20 +662,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04822435152971216</v>
+        <v>0.02645172996171173</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007446815965035031</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.230566067969001</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -693,18 +681,18 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02839691672963432</v>
+        <v>0.02596603746260353</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003258868202173029</v>
+        <v>0.03316685805473615</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -716,14 +704,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01147726055632439</v>
+        <v>0.0103571328724483</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6587262209040794</v>
+        <v>0.4050291809514628</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -739,10 +727,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.005892109541919661</v>
+        <v>0.01021531086090074</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6173535603914692</v>
+        <v>0.4037619092439281</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -754,14 +742,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002946287523867885</v>
+        <v>0.006200088587464818</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8076448471429276</v>
+        <v>0.2209968724063879</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -773,14 +761,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0008711983586323635</v>
+        <v>0.002432769186862443</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9837069557786857</v>
+        <v>0.9281880390242319</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -792,14 +780,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02167283170477735</v>
+        <v>0.001230206406261689</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3187704486672111</v>
+        <v>0.9512779229844177</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -811,14 +799,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02481119179415789</v>
+        <v>-0.01665772912602233</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3453311857143799</v>
+        <v>0.5226347196459827</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -830,20 +818,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.08886290329823052</v>
+        <v>-0.02267800187094642</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000402929621152921</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.6063820524335202</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -857,16 +841,12 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.09581835718835414</v>
+        <v>-0.05571506592936905</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007525389323226963</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1289050003889046</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -880,10 +860,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.2167418492433769</v>
+        <v>-0.216596339591008</v>
       </c>
       <c r="C21" t="n">
-        <v>3.394554823504356e-12</v>
+        <v>1.723906276974184e-11</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -903,10 +883,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4931802632388101</v>
+        <v>0.2809595208400512</v>
       </c>
       <c r="C22" t="n">
-        <v>7.00449460354534e-08</v>
+        <v>0.0009318548734194018</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -922,14 +902,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2418534634528277</v>
+        <v>0.1503339900643861</v>
       </c>
       <c r="C23" t="n">
-        <v>3.496411905934704e-17</v>
+        <v>6.143361610142753e-21</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -945,14 +925,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2259503598083283</v>
+        <v>0.1339370886492275</v>
       </c>
       <c r="C24" t="n">
-        <v>9.452717972713142e-36</v>
+        <v>2.593142508687494e-07</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -972,10 +952,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.163974722455523</v>
+        <v>0.1198282330993105</v>
       </c>
       <c r="C25" t="n">
-        <v>4.262879395231891e-11</v>
+        <v>9.232404203616297e-08</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -995,10 +975,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1251886772269248</v>
+        <v>0.1040893371548686</v>
       </c>
       <c r="C26" t="n">
-        <v>1.3865297634642e-07</v>
+        <v>3.137322534301756e-06</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1014,14 +994,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.09364980429878514</v>
+        <v>0.06811361491630952</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01884596002125015</v>
+        <v>0.03890783117430289</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1037,16 +1017,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.05568861823576339</v>
+        <v>0.05095606694247632</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1132360728222835</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>4.938469552821116e-15</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1056,14 +1040,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01910274932665966</v>
+        <v>0.04952294379931693</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1360589679915026</v>
+        <v>0.2670638963708146</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -1075,14 +1059,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01710980337939894</v>
+        <v>0.04818394101441462</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2901708160492313</v>
+        <v>0.197913365641521</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1094,14 +1078,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.007842414976045764</v>
+        <v>0.02938939754241546</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7868737396439834</v>
+        <v>0.3543263937215796</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
@@ -1113,14 +1097,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.003407431242277902</v>
+        <v>0.01610090106588837</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9181753022330503</v>
+        <v>0.2877783741579483</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1132,14 +1116,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.006429524882739682</v>
+        <v>0.01311201678266867</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8529901254892098</v>
+        <v>0.6250230895703482</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -1155,10 +1139,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.02509276110293222</v>
+        <v>-0.01665518640708223</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1118258760136743</v>
+        <v>0.263667599191738</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
@@ -1170,20 +1154,16 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.04839572472333606</v>
+        <v>-0.02143231889816992</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0009451349462119277</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5121331404872325</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1197,10 +1177,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.04945268768194111</v>
+        <v>-0.04310289071592132</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001854760699904907</v>
+        <v>0.003935266002851822</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1216,16 +1196,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.06693407080754731</v>
+        <v>-0.04464267559254911</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1601683665578613</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>0.001231119301361929</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1235,18 +1219,18 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.0978484124052782</v>
+        <v>-0.06016384421724617</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0009205293693029957</v>
+        <v>0.01460936924054813</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1258,18 +1242,18 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.1087566093587645</v>
+        <v>-0.08774556630847027</v>
       </c>
       <c r="C39" t="n">
-        <v>4.049402362440524e-05</v>
+        <v>0.001609714450238563</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1285,14 +1269,14 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.1914982167040633</v>
+        <v>-0.1359295073228849</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0008734074902186354</v>
+        <v>0.01162285091048564</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1308,10 +1292,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.2630164007021508</v>
+        <v>-0.143864936775756</v>
       </c>
       <c r="C41" t="n">
-        <v>1.885513542060455e-10</v>
+        <v>0.0001597925209954752</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1331,10 +1315,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.764900391039137</v>
+        <v>1.73111230797002</v>
       </c>
       <c r="C42" t="n">
-        <v>4.785805577113096e-32</v>
+        <v>2.51020606247441e-34</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1354,10 +1338,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.332697297204694</v>
+        <v>1.375197384932989</v>
       </c>
       <c r="C43" t="n">
-        <v>2.70148623390402e-14</v>
+        <v>9.202499287457809e-17</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1377,10 +1361,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.8798168920398017</v>
+        <v>0.8187121594304838</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0001177586619438737</v>
+        <v>0.0001240865695677564</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1400,10 +1384,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.8086714926783098</v>
+        <v>0.7459315104999155</v>
       </c>
       <c r="C45" t="n">
-        <v>5.29241331447972e-05</v>
+        <v>6.504117118208687e-05</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1423,10 +1407,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.7183506399183006</v>
+        <v>0.7356423075147689</v>
       </c>
       <c r="C46" t="n">
-        <v>2.615382409914448e-14</v>
+        <v>1.333621159804966e-16</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1442,18 +1426,18 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.6143466572863905</v>
+        <v>0.6809097378386162</v>
       </c>
       <c r="C47" t="n">
-        <v>1.040443204561465e-12</v>
+        <v>0.007060411283167995</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1465,14 +1449,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.5879485065409147</v>
+        <v>0.6395550774182084</v>
       </c>
       <c r="C48" t="n">
-        <v>1.906399204203001e-10</v>
+        <v>4.328184888623461e-15</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1488,18 +1472,18 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.5452686481044299</v>
+        <v>0.6349353308418486</v>
       </c>
       <c r="C49" t="n">
-        <v>0.04444994345696108</v>
+        <v>3.582045093260126e-13</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1515,10 +1499,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4528804051648878</v>
+        <v>0.5564852255024979</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1625463722470147</v>
+        <v>0.06599309746275576</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
@@ -1530,14 +1514,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3898110934864292</v>
+        <v>0.1583646884446606</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4417464000005484</v>
+        <v>0.1993399895780301</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
@@ -1549,14 +1533,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1933827929377951</v>
+        <v>0.137027380202545</v>
       </c>
       <c r="C52" t="n">
-        <v>0.155399738815239</v>
+        <v>0.1030589533861864</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -1568,14 +1552,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1395986449834763</v>
+        <v>0.06027138906840966</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1195030452058175</v>
+        <v>0.0831878025859875</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
@@ -1587,14 +1571,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.08354697951314516</v>
+        <v>0.02054763855685682</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2508805805337428</v>
+        <v>0.9653894564951172</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
@@ -1606,14 +1590,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02558670306606103</v>
+        <v>0.00790196129886378</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8920136216742016</v>
+        <v>0.9261502606482794</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
@@ -1625,14 +1609,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.00940173119690102</v>
+        <v>-0.03361818112956461</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9184501315132922</v>
+        <v>0.8559003541716881</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
@@ -1648,10 +1632,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.05804742619664627</v>
+        <v>-0.161720357767981</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7042135595387087</v>
+        <v>0.2588500903471422</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
@@ -1663,14 +1647,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.1170281124649672</v>
+        <v>-0.2011900157533175</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5572996582248175</v>
+        <v>0.2605874031349835</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
@@ -1686,14 +1670,14 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.500860530374434</v>
+        <v>-0.3073327225490984</v>
       </c>
       <c r="C59" t="n">
-        <v>0.002574125548700334</v>
+        <v>0.04273380067027997</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1709,10 +1693,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.7945194139445179</v>
+        <v>-0.7862970848892317</v>
       </c>
       <c r="C60" t="n">
-        <v>1.717493174796905e-07</v>
+        <v>3.022361989648357e-08</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1732,10 +1716,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1.019343007333839</v>
+        <v>-1.032486191403938</v>
       </c>
       <c r="C61" t="n">
-        <v>9.512654496021173e-06</v>
+        <v>1.820194166818125e-06</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1755,10 +1739,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2217798625904171</v>
+        <v>0.2360528449829241</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02953344551021057</v>
+        <v>0.02415188245974485</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1778,10 +1762,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1326232346543225</v>
+        <v>0.1329831723817231</v>
       </c>
       <c r="C63" t="n">
-        <v>0.003573853040193909</v>
+        <v>0.00438259541236635</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1801,10 +1785,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.07901260454956048</v>
+        <v>0.08336578853006907</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08210410047748372</v>
+        <v>0.07478194442257743</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -1820,10 +1804,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.04826127740467184</v>
+        <v>0.0463738559195384</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2275514443787787</v>
+        <v>0.2555849902778649</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -1839,10 +1823,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01941448159078629</v>
+        <v>0.0151349800269134</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2917963623879252</v>
+        <v>0.4201411027700777</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
@@ -1858,10 +1842,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01362639571448759</v>
+        <v>0.01274445868200105</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6823597584024255</v>
+        <v>0.7093791665272037</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
@@ -1877,10 +1861,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01140981483858347</v>
+        <v>0.008165155773005653</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4895229544872343</v>
+        <v>0.6305090640740842</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
@@ -1896,10 +1880,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.00221658087590481</v>
+        <v>0.004579302908996698</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9016352664007621</v>
+        <v>0.8034714322620029</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
@@ -1915,10 +1899,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.005086124832235394</v>
+        <v>-0.0009113497745449461</v>
       </c>
       <c r="C70" t="n">
-        <v>0.864105750242092</v>
+        <v>0.9760758973257406</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
@@ -1930,14 +1914,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.00985961307367835</v>
+        <v>-0.005192426630962078</v>
       </c>
       <c r="C71" t="n">
-        <v>0.582433407390886</v>
+        <v>0.4967034760916094</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
@@ -1949,14 +1933,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.010901022136322</v>
+        <v>-0.01068228251591537</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4543212289463261</v>
+        <v>0.5628447091979043</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
@@ -1968,14 +1952,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.02257430870280112</v>
+        <v>-0.01847222354653513</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5501032872066902</v>
+        <v>0.495926990296735</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
@@ -1987,14 +1971,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.02655860314081847</v>
+        <v>-0.03488645650933091</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3296876485950295</v>
+        <v>0.3752264048132876</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
@@ -2010,10 +1994,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.03041514933020129</v>
+        <v>-0.03937107328666113</v>
       </c>
       <c r="C75" t="n">
-        <v>0.357385376167349</v>
+        <v>0.23709638133572</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
@@ -2029,10 +2013,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.04475900174364066</v>
+        <v>-0.04554591179601011</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1447211086944096</v>
+        <v>0.1487926932791002</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
@@ -2044,18 +2028,18 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.05761111971754794</v>
+        <v>-0.05249263412860186</v>
       </c>
       <c r="C77" t="n">
-        <v>0.02975754250364077</v>
+        <v>0.004457213217096669</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2067,18 +2051,18 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.05808498276878088</v>
+        <v>-0.06046848205830307</v>
       </c>
       <c r="C78" t="n">
-        <v>0.001252259751478138</v>
+        <v>0.02662119664283453</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2094,10 +2078,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.08943120564354615</v>
+        <v>-0.09482000900521763</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09952777282970188</v>
+        <v>0.08705961616525311</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
@@ -2113,10 +2097,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.1189968389398343</v>
+        <v>-0.1202387136997213</v>
       </c>
       <c r="C80" t="n">
-        <v>0.06737305748775173</v>
+        <v>0.07106346003001217</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
@@ -2132,10 +2116,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.3111847579365411</v>
+        <v>-0.3161887903886004</v>
       </c>
       <c r="C81" t="n">
-        <v>6.953012267592215e-14</v>
+        <v>1.140372843993806e-13</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2151,14 +2135,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1676469096480515</v>
+        <v>0.142523018491469</v>
       </c>
       <c r="C82" t="n">
-        <v>9.572995686340363e-06</v>
+        <v>0.0002810123639869121</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2174,18 +2158,18 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1082167078980477</v>
+        <v>0.1171983036949425</v>
       </c>
       <c r="C83" t="n">
-        <v>0.005763384189899033</v>
+        <v>1.183980216590531e-08</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2197,16 +2181,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.06708156012302791</v>
+        <v>0.07191890217053779</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1339253308757883</v>
-      </c>
-      <c r="D84" t="inlineStr"/>
+        <v>5.648749680759733e-42</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2216,14 +2204,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.05092574364410717</v>
+        <v>0.06348180075671321</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0004483371704344727</v>
+        <v>9.630691893452015e-09</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2239,16 +2227,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.04929089873679087</v>
+        <v>0.05371650293822867</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3561587844792496</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
+        <v>1.243791173888325e-07</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2258,14 +2250,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02699331668291223</v>
+        <v>0.04980259260715879</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1273347084148337</v>
+        <v>0.06832677370102994</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
@@ -2281,12 +2273,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01891736488223972</v>
+        <v>0.04358013532496434</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5184672702925176</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
+        <v>0.01456126983058641</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2296,14 +2292,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01809661403580037</v>
+        <v>0.006332719966015069</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7771129393573741</v>
+        <v>0.5568743543234183</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
@@ -2315,14 +2311,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01195733972662499</v>
+        <v>0.0003115319403869665</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6558858987150533</v>
+        <v>0.9891719751403625</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
@@ -2338,10 +2334,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.007786403261785887</v>
+        <v>-0.004661368561782082</v>
       </c>
       <c r="C91" t="n">
-        <v>0.667660013169067</v>
+        <v>0.6705242402660319</v>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
@@ -2353,14 +2349,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.0008925243495406703</v>
+        <v>-0.009269713847677424</v>
       </c>
       <c r="C92" t="n">
-        <v>0.976413713729912</v>
+        <v>0.5589072660799643</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
@@ -2372,14 +2368,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.006835435104106591</v>
+        <v>-0.0229330413317579</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7927569768725967</v>
+        <v>0.4774989454340225</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
@@ -2391,14 +2387,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.01426705184339128</v>
+        <v>-0.02532471479652698</v>
       </c>
       <c r="C94" t="n">
-        <v>0.419803403434642</v>
+        <v>0.3496247962868581</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
@@ -2410,14 +2406,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.01478319550197574</v>
+        <v>-0.02615873030948498</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3637382913701234</v>
+        <v>0.2694602978698377</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
@@ -2429,16 +2425,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.01657222445891441</v>
+        <v>-0.03501135887587159</v>
       </c>
       <c r="C96" t="n">
-        <v>0.346142038658073</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
+        <v>0.02768153863024755</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2448,16 +2448,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.02905024734536741</v>
+        <v>-0.04726367620400133</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3762578416998302</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
+        <v>1.402866360489754e-05</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2467,16 +2471,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.03379674246136127</v>
+        <v>-0.047388489638724</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3908941160070173</v>
-      </c>
-      <c r="D98" t="inlineStr"/>
+        <v>0.01520275080376517</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2486,16 +2494,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.04714686138116725</v>
+        <v>-0.06578658500369618</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2901104967634121</v>
-      </c>
-      <c r="D99" t="inlineStr"/>
+        <v>0.0004021499541929435</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2509,12 +2521,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.06113811899242792</v>
+        <v>-0.1431430193225595</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5411187428476533</v>
-      </c>
-      <c r="D100" t="inlineStr"/>
+        <v>0.01923769355072301</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2524,14 +2540,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.1282010154656462</v>
+        <v>-0.1521256500697991</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0001016539433039863</v>
+        <v>6.437913051178076e-10</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
